--- a/data/source/결과 정리_r1.0.xlsx
+++ b/data/source/결과 정리_r1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B15F27-8B58-4752-898C-5746567B617F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16905" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -12,18 +13,24 @@
     <sheet name="Non-Linear_Retry" sheetId="3" r:id="rId3"/>
     <sheet name="Non-Linear_Flange" sheetId="5" r:id="rId4"/>
     <sheet name="Non-Linear_Failed" sheetId="2" r:id="rId5"/>
+    <sheet name="Linear-poly 비교" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="123">
   <si>
     <t>상부 넓이</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -467,6 +474,38 @@
     <t>회귀분석식 정리 (독립변수의 계수)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>actual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear_prediction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poly_prediction_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poly_prediction_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차(A-B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차비율(A-B)/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차비율평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +519,7 @@
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +570,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -882,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1085,6 +1130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26161,8 +26209,8 @@
   </sheetPr>
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30926,8 +30974,8 @@
   </sheetPr>
   <dimension ref="B1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
@@ -34884,7 +34932,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34893,7 +34942,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -37194,4 +37243,987 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BED358-4F22-4D08-80C7-0FD3ED442E0D}">
+  <dimension ref="A2:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="77">
+        <v>31.554498469999999</v>
+      </c>
+      <c r="E3" s="77">
+        <v>36.827641909999997</v>
+      </c>
+      <c r="F3" s="77">
+        <v>26.419321499999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="77">
+        <v>33.338523479999999</v>
+      </c>
+      <c r="I3" s="77">
+        <v>28.119035409999999</v>
+      </c>
+      <c r="J3" s="77">
+        <v>24.191248160000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="77">
+        <v>25.264198820000001</v>
+      </c>
+      <c r="M3" s="77">
+        <v>25.5135687</v>
+      </c>
+      <c r="N3" s="77">
+        <v>20.61857354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>79</v>
+      </c>
+      <c r="D4" s="77">
+        <v>76.409036720000003</v>
+      </c>
+      <c r="E4" s="77">
+        <v>22.257561720000002</v>
+      </c>
+      <c r="F4" s="77">
+        <v>90.225061210000007</v>
+      </c>
+      <c r="G4" s="1">
+        <v>84</v>
+      </c>
+      <c r="H4" s="77">
+        <v>82.727739819999996</v>
+      </c>
+      <c r="I4" s="77">
+        <v>55.769786770000003</v>
+      </c>
+      <c r="J4" s="77">
+        <v>94.087317139999996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>78</v>
+      </c>
+      <c r="L4" s="77">
+        <v>85.232599219999997</v>
+      </c>
+      <c r="M4" s="77">
+        <v>54.870970960000001</v>
+      </c>
+      <c r="N4" s="77">
+        <v>88.997154069999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>171</v>
+      </c>
+      <c r="D5" s="77">
+        <v>163.35075237000001</v>
+      </c>
+      <c r="E5" s="77">
+        <v>239.10583879999999</v>
+      </c>
+      <c r="F5" s="77">
+        <v>234.12517582999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>190</v>
+      </c>
+      <c r="H5" s="77">
+        <v>165.26567334000001</v>
+      </c>
+      <c r="I5" s="77">
+        <v>218.6033573</v>
+      </c>
+      <c r="J5" s="77">
+        <v>236.23881220000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>193</v>
+      </c>
+      <c r="L5" s="77">
+        <v>180.95989023999999</v>
+      </c>
+      <c r="M5" s="77">
+        <v>217.35978938</v>
+      </c>
+      <c r="N5" s="77">
+        <v>220.87468355999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>301</v>
+      </c>
+      <c r="D6" s="77">
+        <v>224.17633520000001</v>
+      </c>
+      <c r="E6" s="77">
+        <v>297.45240584999999</v>
+      </c>
+      <c r="F6" s="77">
+        <v>312.78190438000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>268</v>
+      </c>
+      <c r="H6" s="77">
+        <v>227.22611599000001</v>
+      </c>
+      <c r="I6" s="77">
+        <v>306.68777448999998</v>
+      </c>
+      <c r="J6" s="77">
+        <v>342.17814292000003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>303</v>
+      </c>
+      <c r="L6" s="77">
+        <v>240.84338101</v>
+      </c>
+      <c r="M6" s="77">
+        <v>308.46793732999998</v>
+      </c>
+      <c r="N6" s="77">
+        <v>325.44550973999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>212</v>
+      </c>
+      <c r="D7" s="77">
+        <v>250.94029943000001</v>
+      </c>
+      <c r="E7" s="77">
+        <v>281.86462833000002</v>
+      </c>
+      <c r="F7" s="77">
+        <v>295.17480741999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>242</v>
+      </c>
+      <c r="H7" s="77">
+        <v>266.83843399</v>
+      </c>
+      <c r="I7" s="77">
+        <v>285.99813101000001</v>
+      </c>
+      <c r="J7" s="77">
+        <v>315.00050212999997</v>
+      </c>
+      <c r="K7" s="1">
+        <v>221</v>
+      </c>
+      <c r="L7" s="77">
+        <v>253.12515571</v>
+      </c>
+      <c r="M7" s="77">
+        <v>273.44144102000001</v>
+      </c>
+      <c r="N7" s="77">
+        <v>286.66308058999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="1">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1">
+        <v>87</v>
+      </c>
+      <c r="D8" s="77">
+        <v>88.593152489999994</v>
+      </c>
+      <c r="E8" s="77">
+        <v>64.724015370000004</v>
+      </c>
+      <c r="F8" s="77">
+        <v>100.92501664</v>
+      </c>
+      <c r="G8" s="1">
+        <v>91</v>
+      </c>
+      <c r="H8" s="77">
+        <v>92.457429829999995</v>
+      </c>
+      <c r="I8" s="77">
+        <v>80.209642349999996</v>
+      </c>
+      <c r="J8" s="77">
+        <v>105.43950172</v>
+      </c>
+      <c r="K8" s="1">
+        <v>95</v>
+      </c>
+      <c r="L8" s="77">
+        <v>96.846358359999996</v>
+      </c>
+      <c r="M8" s="77">
+        <v>77.977080430000001</v>
+      </c>
+      <c r="N8" s="77">
+        <v>97.426679570000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="1">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32</v>
+      </c>
+      <c r="D9" s="77">
+        <v>16.264873869999999</v>
+      </c>
+      <c r="E9" s="77">
+        <v>36.496953949999998</v>
+      </c>
+      <c r="F9" s="77">
+        <v>30.791614020000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>33</v>
+      </c>
+      <c r="H9" s="77">
+        <v>14.602917010000001</v>
+      </c>
+      <c r="I9" s="77">
+        <v>31.634723810000001</v>
+      </c>
+      <c r="J9" s="77">
+        <v>32.150881159999997</v>
+      </c>
+      <c r="K9" s="1">
+        <v>32</v>
+      </c>
+      <c r="L9" s="77">
+        <v>20.961411129999998</v>
+      </c>
+      <c r="M9" s="77">
+        <v>33.984960409999999</v>
+      </c>
+      <c r="N9" s="77">
+        <v>32.237248600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f>ABS($C3-D3)</f>
+        <v>19.554498469999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:F11" si="0">ABS($C3-E3)</f>
+        <v>24.827641909999997</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>14.419321499999999</v>
+      </c>
+      <c r="H11">
+        <f>ABS($G3-H3)</f>
+        <v>20.338523479999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:J11" si="1">ABS($G3-I3)</f>
+        <v>15.119035409999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>11.191248160000001</v>
+      </c>
+      <c r="L11">
+        <f>ABS($K3-L3)</f>
+        <v>13.264198820000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:N11" si="2">ABS($K3-M3)</f>
+        <v>13.5135687</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>8.6185735399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:F12" si="3">ABS($C4-D4)</f>
+        <v>2.5909632799999969</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>56.742438280000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>11.225061210000007</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:J12" si="4">ABS($G4-H4)</f>
+        <v>1.2722601800000035</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>28.230213229999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>10.087317139999996</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:N12" si="5">ABS($K4-L4)</f>
+        <v>7.2325992199999973</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>23.129029039999999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>10.997154069999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:F13" si="6">ABS($C5-D5)</f>
+        <v>7.6492476299999907</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>68.105838799999987</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>63.125175829999989</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:J13" si="7">ABS($G5-H5)</f>
+        <v>24.734326659999994</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>28.603357299999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>46.238812200000012</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:N13" si="8">ABS($K5-L5)</f>
+        <v>12.040109760000007</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>24.359789379999995</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>27.874683559999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:F14" si="9">ABS($C6-D6)</f>
+        <v>76.823664799999989</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>3.547594150000009</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>11.781904380000014</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:J14" si="10">ABS($G6-H6)</f>
+        <v>40.773884009999989</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="10"/>
+        <v>38.687774489999981</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="10"/>
+        <v>74.178142920000028</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:N14" si="11">ABS($K6-L6)</f>
+        <v>62.156618989999998</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>5.4679373299999838</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>22.445509739999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="1">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:F15" si="12">ABS($C7-D7)</f>
+        <v>38.94029943000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="12"/>
+        <v>69.864628330000016</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="12"/>
+        <v>83.174807419999979</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:J15" si="13">ABS($G7-H7)</f>
+        <v>24.838433989999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="13"/>
+        <v>43.998131010000009</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="13"/>
+        <v>73.000502129999973</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:N15" si="14">ABS($K7-L7)</f>
+        <v>32.125155710000001</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="14"/>
+        <v>52.441441020000013</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="14"/>
+        <v>65.663080589999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="1">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="15">ABS($C8-D8)</f>
+        <v>1.5931524899999943</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="15"/>
+        <v>22.275984629999996</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="15"/>
+        <v>13.925016639999996</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:J16" si="16">ABS($G8-H8)</f>
+        <v>1.4574298299999953</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="16"/>
+        <v>10.790357650000004</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="16"/>
+        <v>14.439501719999996</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:N16" si="17">ABS($K8-L8)</f>
+        <v>1.8463583599999964</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="17"/>
+        <v>17.022919569999999</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="17"/>
+        <v>2.4266795700000046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="1">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:F17" si="18">ABS($C9-D9)</f>
+        <v>15.735126130000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="18"/>
+        <v>4.4969539499999982</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="18"/>
+        <v>1.2083859799999992</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="19">ABS($G9-H9)</f>
+        <v>18.397082990000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="19"/>
+        <v>1.3652761899999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="19"/>
+        <v>0.84911884000000271</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:N17" si="20">ABS($K9-L9)</f>
+        <v>11.038588870000002</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="20"/>
+        <v>1.9849604099999993</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="20"/>
+        <v>0.23724860000000092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <f>D11/$C3</f>
+        <v>1.6295415391666666</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:F19" si="21">E11/$C3</f>
+        <v>2.0689701591666663</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="21"/>
+        <v>1.201610125</v>
+      </c>
+      <c r="H19">
+        <f>H11/$G3</f>
+        <v>1.564501806153846</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:J19" si="22">I11/$G3</f>
+        <v>1.1630027238461538</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="22"/>
+        <v>0.86086524307692314</v>
+      </c>
+      <c r="L19">
+        <f>L11/$K3</f>
+        <v>1.1053499016666668</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:N19" si="23">M11/$K3</f>
+        <v>1.1261307250000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="23"/>
+        <v>0.71821446166666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:F20" si="24">D12/$C4</f>
+        <v>3.279700354430376E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="24"/>
+        <v>0.71825871240506334</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="24"/>
+        <v>0.14208938240506339</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="25">H12/$G4</f>
+        <v>1.5145954523809565E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="25"/>
+        <v>0.33607396702380948</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="25"/>
+        <v>0.12008710880952377</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:N20" si="26">L12/$K4</f>
+        <v>9.2725631025640992E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="26"/>
+        <v>0.29652601333333334</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="26"/>
+        <v>0.14098915474358967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="27">D13/$C5</f>
+        <v>4.4732442280701702E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="27"/>
+        <v>0.39827975906432739</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="27"/>
+        <v>0.36915307502923972</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="28">H13/$G5</f>
+        <v>0.1301806666315789</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="28"/>
+        <v>0.15054398578947367</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="28"/>
+        <v>0.24336216947368428</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:N21" si="29">L13/$K5</f>
+        <v>6.2383988393782418E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="29"/>
+        <v>0.12621652528497407</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="29"/>
+        <v>0.14442841222797925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:F22" si="30">D14/$C6</f>
+        <v>0.25522812225913616</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="30"/>
+        <v>1.1786027076411991E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="30"/>
+        <v>3.9142539468438584E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:J22" si="31">H14/$G6</f>
+        <v>0.15214135824626862</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="31"/>
+        <v>0.14435736749999992</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="31"/>
+        <v>0.27678411537313441</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:N22" si="32">L14/$K6</f>
+        <v>0.20513735640264025</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="32"/>
+        <v>1.8045997788778825E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="32"/>
+        <v>7.4077589900990018E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="1">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:F23" si="33">D15/$C7</f>
+        <v>0.18368065768867931</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="33"/>
+        <v>0.32955013363207553</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="33"/>
+        <v>0.39233399726415086</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:J23" si="34">H15/$G7</f>
+        <v>0.10263815698347106</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="34"/>
+        <v>0.18181045871900831</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="34"/>
+        <v>0.30165496747933873</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:N23" si="35">L15/$K7</f>
+        <v>0.14536269552036199</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="35"/>
+        <v>0.23729158832579192</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="35"/>
+        <v>0.29711801171945695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="B24" s="1">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:F24" si="36">D16/$C8</f>
+        <v>1.8312097586206829E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="36"/>
+        <v>0.25604580034482755</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="36"/>
+        <v>0.16005766252873557</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:J24" si="37">H16/$G8</f>
+        <v>1.6015712417582366E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="37"/>
+        <v>0.11857535879120884</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="37"/>
+        <v>0.15867584307692303</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:N24" si="38">L16/$K8</f>
+        <v>1.9435351157894701E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="38"/>
+        <v>0.17918862705263158</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="38"/>
+        <v>2.5543995473684258E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25" s="1">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <f>D17/$C9</f>
+        <v>0.49172269156250004</v>
+      </c>
+      <c r="E25">
+        <f>E17/$C9</f>
+        <v>0.14052981093749994</v>
+      </c>
+      <c r="F25">
+        <f>F17/$C9</f>
+        <v>3.7762061874999975E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:J25" si="39">H17/$G9</f>
+        <v>0.55748736333333337</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="39"/>
+        <v>4.1372005757575742E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="39"/>
+        <v>2.5730873939394022E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:N25" si="40">L17/$K9</f>
+        <v>0.34495590218750005</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="40"/>
+        <v>6.2030012812499979E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="40"/>
+        <v>7.4140187500000287E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(D19:D25)</f>
+        <v>0.37943065058402775</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:N27" si="41">AVERAGE(E19:E25)</f>
+        <v>0.56048862894669604</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="41"/>
+        <v>0.33459269193866115</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="41"/>
+        <v>0.36258728832712711</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="41"/>
+        <v>0.30510512391817574</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="41"/>
+        <v>0.28388004588984589</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="41"/>
+        <v>0.28219297519349817</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="41"/>
+        <v>0.29220421279971565</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="41"/>
+        <v>0.2011122349260524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>